--- a/_Out/Server/NFDataCfg/Excel_Struct/EffectData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/EffectData.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
   <si>
     <t>Id</t>
   </si>
@@ -200,17 +204,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -233,23 +237,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -261,14 +250,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -567,6 +561,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -599,15 +594,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F25"/>
+      <selection activeCell="C2" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -620,7 +614,7 @@
     <col min="10" max="10" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -652,7 +646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -660,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -684,7 +678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -692,7 +686,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -716,7 +710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -724,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -748,7 +742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -756,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -780,7 +774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -788,7 +782,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -812,7 +806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -820,7 +814,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -844,7 +838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -852,7 +846,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -876,7 +870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -884,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -908,7 +902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -916,7 +910,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -940,7 +934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -948,7 +942,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -972,7 +966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -980,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1004,7 +998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1012,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1036,7 +1030,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1044,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1068,7 +1062,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1076,7 +1070,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1100,7 +1094,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -1108,7 +1102,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1132,7 +1126,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1140,7 +1134,7 @@
         <v>11</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -1164,7 +1158,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -1172,7 +1166,7 @@
         <v>11</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -1196,7 +1190,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1204,7 +1198,7 @@
         <v>11</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -1228,7 +1222,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
@@ -1260,7 +1254,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -1292,7 +1286,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -1324,7 +1318,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
@@ -1356,7 +1350,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -1388,7 +1382,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
@@ -1421,14 +1415,15 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F25 F26:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Struct/EffectData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/EffectData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -205,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -219,13 +219,25 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -242,11 +254,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,7 +613,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C19"/>
+      <selection activeCell="A2" sqref="A2:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -665,10 +680,10 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -697,10 +712,10 @@
       <c r="F3" t="b">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -729,10 +744,10 @@
       <c r="F4" t="b">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -761,10 +776,10 @@
       <c r="F5" t="b">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -793,10 +808,10 @@
       <c r="F6" t="b">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -825,10 +840,10 @@
       <c r="F7" t="b">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -857,10 +872,10 @@
       <c r="F8" t="b">
         <v>1</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -889,10 +904,10 @@
       <c r="F9" t="b">
         <v>1</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -921,10 +936,10 @@
       <c r="F10" t="b">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -953,10 +968,10 @@
       <c r="F11" t="b">
         <v>1</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -985,10 +1000,10 @@
       <c r="F12" t="b">
         <v>1</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -1017,10 +1032,10 @@
       <c r="F13" t="b">
         <v>1</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -1049,10 +1064,10 @@
       <c r="F14" t="b">
         <v>1</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -1081,10 +1096,10 @@
       <c r="F15" t="b">
         <v>1</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -1113,10 +1128,10 @@
       <c r="F16" t="b">
         <v>1</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1145,10 +1160,10 @@
       <c r="F17" t="b">
         <v>1</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -1177,10 +1192,10 @@
       <c r="F18" t="b">
         <v>1</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -1209,10 +1224,10 @@
       <c r="F19" t="b">
         <v>1</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -1241,10 +1256,10 @@
       <c r="F20" t="b">
         <v>1</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -1273,10 +1288,10 @@
       <c r="F21" t="b">
         <v>1</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -1305,10 +1320,10 @@
       <c r="F22" t="b">
         <v>1</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -1337,10 +1352,10 @@
       <c r="F23" t="b">
         <v>1</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -1369,10 +1384,10 @@
       <c r="F24" t="b">
         <v>1</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -1401,10 +1416,10 @@
       <c r="F25" t="b">
         <v>1</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="s">

--- a/_Out/Server/NFDataCfg/Excel_Struct/EffectData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/EffectData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>Id</t>
   </si>
@@ -36,7 +31,7 @@
     <t>Save</t>
   </si>
   <si>
-    <t>View</t>
+    <t>Cache</t>
   </si>
   <si>
     <t>Index</t>
@@ -204,19 +199,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -225,8 +219,159 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,8 +384,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -248,9 +579,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -258,26 +831,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -327,71 +939,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -609,14 +1221,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J25"/>
+      <selection activeCell="F2" sqref="F2:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -629,7 +1242,7 @@
     <col min="10" max="10" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +1274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -678,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -693,7 +1306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -710,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -725,7 +1338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -742,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -757,7 +1370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -774,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -789,7 +1402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -806,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -821,7 +1434,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -838,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -853,7 +1466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -870,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -885,7 +1498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -902,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -917,7 +1530,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -934,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -949,7 +1562,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -966,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -981,7 +1594,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -998,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -1013,7 +1626,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1030,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -1045,7 +1658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1062,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -1077,7 +1690,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1094,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -1109,7 +1722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -1126,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -1141,7 +1754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1158,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -1173,7 +1786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -1190,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -1205,7 +1818,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1222,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -1237,7 +1850,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
@@ -1254,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -1269,7 +1882,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -1286,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -1301,7 +1914,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -1318,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -1333,7 +1946,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
@@ -1350,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
@@ -1365,7 +1978,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -1382,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
@@ -1397,7 +2010,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
@@ -1414,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
@@ -1430,15 +2043,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F25 F26:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Struct/EffectData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/EffectData.xlsx
@@ -213,31 +213,30 @@
     <t>BUFF免疫开关</t>
   </si>
   <si>
-    <t>眩晕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>晕抗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DIZZY_GATE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DIZZY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>暴击</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DEF_DIZZY</t>
+    <t>CRITICAL</t>
+  </si>
+  <si>
+    <t>ATK_WIND</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CRITICAL</t>
+    <t>土</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>土抗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF_WIND</t>
   </si>
 </sst>
 </file>
@@ -697,7 +696,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -811,7 +810,7 @@
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -838,7 +837,7 @@
         <v>12</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1227,7 +1226,7 @@
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
@@ -1253,13 +1252,13 @@
       <c r="I17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>41</v>
+      <c r="J17" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
@@ -1286,12 +1285,12 @@
         <v>12</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
@@ -1318,12 +1317,12 @@
         <v>12</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
@@ -1350,12 +1349,12 @@
         <v>12</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -1382,12 +1381,12 @@
         <v>12</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>50</v>
+      <c r="A22" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
@@ -1413,13 +1412,13 @@
       <c r="I22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>51</v>
+      <c r="J22" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
@@ -1446,12 +1445,12 @@
         <v>12</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
@@ -1478,12 +1477,12 @@
         <v>12</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
@@ -1510,12 +1509,12 @@
         <v>12</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -1542,12 +1541,12 @@
         <v>12</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>11</v>
@@ -1574,103 +1573,103 @@
         <v>12</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="2" t="s">
+      <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
